--- a/333RestaurantSelectionProject/menu.xlsx
+++ b/333RestaurantSelectionProject/menu.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5363225C-CB59-4A3B-913A-D959FBD67191}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E33642-85CE-4C1B-95FF-69FC75CBC54F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="85">
   <si>
     <t>Hamburger</t>
   </si>
@@ -211,18 +211,12 @@
     <t>Taco Bell</t>
   </si>
   <si>
-    <t>​Wendy’s</t>
-  </si>
-  <si>
     <t>Eastern House</t>
   </si>
   <si>
     <t>East Star Chinese Buffet</t>
   </si>
   <si>
-    <t>​First Wok</t>
-  </si>
-  <si>
     <t>Panda Garden</t>
   </si>
   <si>
@@ -278,6 +272,9 @@
   </si>
   <si>
     <t>Starbucks</t>
+  </si>
+  <si>
+    <t>1st Wok</t>
   </si>
 </sst>
 </file>
@@ -604,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C274"/>
+  <dimension ref="A1:C268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A149" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E161" sqref="E161"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:XFD107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,10 +1728,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B102" s="2">
-        <v>6.99</v>
+        <v>3.6</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>63</v>
@@ -1742,10 +1739,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B103" s="2">
-        <v>7.69</v>
+        <v>5.5</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>63</v>
@@ -1753,32 +1750,32 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B104" s="2">
-        <v>4.6900000000000004</v>
+        <v>2.09</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>9</v>
-      </c>
-      <c r="B105" s="2">
-        <v>3.09</v>
+      <c r="A105" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="3">
+        <v>2.39</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>10</v>
+      <c r="A106" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B106" s="2">
-        <v>2.09</v>
+        <v>3.55</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>63</v>
@@ -1786,65 +1783,65 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B107" s="3">
-        <v>2.39</v>
+        <v>18</v>
+      </c>
+      <c r="B107" s="2">
+        <v>3.55</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>15</v>
+      <c r="A108" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B108" s="2">
-        <v>3.6</v>
+        <v>7.58</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>16</v>
+      <c r="A109" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B109" s="2">
-        <v>5.5</v>
+        <v>5.68</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B110" s="2">
-        <v>2.09</v>
+        <v>3.6</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B111" s="3">
-        <v>2.39</v>
+      <c r="A111" t="s">
+        <v>16</v>
+      </c>
+      <c r="B111" s="2">
+        <v>5.5</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>17</v>
+      <c r="A112" t="s">
+        <v>10</v>
       </c>
       <c r="B112" s="2">
-        <v>3.55</v>
+        <v>2.09</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>64</v>
@@ -1852,10 +1849,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B113" s="2">
-        <v>3.55</v>
+        <v>11</v>
+      </c>
+      <c r="B113" s="3">
+        <v>2.39</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>64</v>
@@ -1863,10 +1860,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B114" s="2">
-        <v>7.58</v>
+        <v>3.55</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>64</v>
@@ -1874,153 +1871,153 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B115" s="2">
-        <v>5.68</v>
+        <v>3.55</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>15</v>
+      <c r="A116" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B116" s="2">
-        <v>3.6</v>
+        <v>7.58</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>16</v>
+      <c r="A117" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B117" s="2">
-        <v>5.5</v>
+        <v>5.68</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>15</v>
+      </c>
+      <c r="B118" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>10</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B120" s="2">
         <v>2.09</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B119" s="3">
-        <v>2.39</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B120" s="2">
-        <v>3.55</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B121" s="2">
-        <v>3.55</v>
+        <v>11</v>
+      </c>
+      <c r="B121" s="3">
+        <v>2.39</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B122" s="2">
-        <v>7.58</v>
+        <v>3.55</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B123" s="2">
+        <v>3.55</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" s="2">
+        <v>7.58</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B125" s="2">
         <v>5.68</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>15</v>
-      </c>
-      <c r="B124" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>16</v>
-      </c>
-      <c r="B125" s="2">
-        <v>5.5</v>
-      </c>
       <c r="C125" s="2" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B126" s="2">
-        <v>2.09</v>
+        <v>3.6</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B127" s="3">
-        <v>2.39</v>
+      <c r="A127" t="s">
+        <v>16</v>
+      </c>
+      <c r="B127" s="2">
+        <v>5.5</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>17</v>
+      <c r="A128" t="s">
+        <v>10</v>
       </c>
       <c r="B128" s="2">
-        <v>3.55</v>
+        <v>2.09</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>66</v>
@@ -2028,10 +2025,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B129" s="2">
-        <v>3.55</v>
+        <v>11</v>
+      </c>
+      <c r="B129" s="3">
+        <v>2.39</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>66</v>
@@ -2039,10 +2036,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B130" s="2">
-        <v>7.58</v>
+        <v>3.55</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>66</v>
@@ -2050,35 +2047,35 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B131" s="2">
-        <v>5.68</v>
+        <v>3.55</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>15</v>
+      <c r="A132" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B132" s="2">
-        <v>3.6</v>
+        <v>7.58</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>16</v>
+      <c r="A133" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B133" s="2">
-        <v>5.5</v>
+        <v>5.68</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2089,7 +2086,7 @@
         <v>2.09</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2100,7 +2097,7 @@
         <v>2.39</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2111,7 +2108,7 @@
         <v>3.55</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2122,7 +2119,7 @@
         <v>3.55</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2133,7 +2130,7 @@
         <v>7.58</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2144,7 +2141,7 @@
         <v>5.68</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2171,32 +2168,32 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B142" s="2">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>18</v>
+      <c r="A143" t="s">
+        <v>1</v>
       </c>
       <c r="B143" s="2">
-        <v>3.55</v>
+        <v>6.69</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="1" t="s">
-        <v>19</v>
+      <c r="A144" t="s">
+        <v>4</v>
       </c>
       <c r="B144" s="2">
-        <v>7.58</v>
+        <v>3.69</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>67</v>
@@ -2204,134 +2201,134 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B145" s="2">
-        <v>5.68</v>
+        <v>3.55</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>10</v>
+      <c r="A146" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B146" s="2">
-        <v>2.09</v>
+        <v>3.55</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B147" s="3">
-        <v>2.39</v>
+        <v>19</v>
+      </c>
+      <c r="B147" s="2">
+        <v>7.58</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B148" s="2">
-        <v>3.58</v>
+        <v>5.68</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B149" s="2">
-        <v>6.69</v>
+        <v>2.09</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>4</v>
-      </c>
-      <c r="B150" s="2">
-        <v>3.69</v>
+      <c r="A150" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" s="3">
+        <v>2.39</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B151" s="2">
-        <v>3.55</v>
+        <v>22</v>
+      </c>
+      <c r="B151" s="3">
+        <v>7.99</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B152" s="2">
-        <v>3.55</v>
+        <v>23</v>
+      </c>
+      <c r="B152" s="3">
+        <v>10.99</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B153" s="2">
-        <v>7.58</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B154" s="2">
-        <v>5.68</v>
+        <v>12.89</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>10</v>
-      </c>
-      <c r="B155" s="2">
-        <v>2.09</v>
+      <c r="A155" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="3">
+        <v>2.39</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B156" s="3">
-        <v>2.39</v>
+        <v>4.45</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2342,7 +2339,7 @@
         <v>7.99</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2350,10 +2347,10 @@
         <v>23</v>
       </c>
       <c r="B158" s="3">
-        <v>10.99</v>
+        <v>10.59</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2364,7 +2361,7 @@
         <v>16.989999999999998</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2372,10 +2369,10 @@
         <v>25</v>
       </c>
       <c r="B160" s="2">
-        <v>12.89</v>
+        <v>12.79</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2386,7 +2383,7 @@
         <v>2.39</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2394,10 +2391,10 @@
         <v>26</v>
       </c>
       <c r="B162" s="3">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2408,7 +2405,7 @@
         <v>7.99</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2416,10 +2413,10 @@
         <v>23</v>
       </c>
       <c r="B164" s="3">
-        <v>10.59</v>
+        <v>11.99</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -2427,10 +2424,10 @@
         <v>24</v>
       </c>
       <c r="B165" s="2">
-        <v>16.989999999999998</v>
+        <v>17.989999999999998</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -2438,10 +2435,10 @@
         <v>25</v>
       </c>
       <c r="B166" s="2">
-        <v>12.79</v>
+        <v>12.89</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -2452,7 +2449,7 @@
         <v>2.39</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -2460,648 +2457,648 @@
         <v>26</v>
       </c>
       <c r="B168" s="3">
-        <v>4.55</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B169" s="3">
-        <v>7.99</v>
+        <v>5.99</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B170" s="3">
         <v>11.99</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B171" s="2">
-        <v>17.989999999999998</v>
+        <v>29</v>
+      </c>
+      <c r="B171" s="3">
+        <v>11.99</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B172" s="2">
-        <v>12.89</v>
+        <v>30</v>
+      </c>
+      <c r="B172" s="3">
+        <v>11.99</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="B173" s="3">
-        <v>2.39</v>
+        <v>11.99</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B174" s="3">
-        <v>4.3499999999999996</v>
+        <v>11.99</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B175" s="3">
-        <v>5.99</v>
+        <v>11.99</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B176" s="3">
         <v>11.99</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B177" s="3">
-        <v>11.99</v>
+        <v>5.99</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B178" s="3">
-        <v>11.99</v>
+        <v>5.89</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B179" s="3">
-        <v>11.99</v>
+        <v>11.79</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B180" s="3">
-        <v>11.99</v>
+        <v>11.79</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B181" s="3">
-        <v>11.99</v>
+        <v>11.79</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B182" s="3">
-        <v>11.99</v>
+        <v>11.79</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B183" s="3">
-        <v>5.99</v>
+        <v>11.79</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B184" s="3">
-        <v>5.89</v>
+        <v>11.79</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B185" s="3">
-        <v>11.79</v>
+        <v>5.99</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B186" s="3">
-        <v>11.79</v>
+        <v>5.89</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B187" s="3">
-        <v>11.79</v>
+        <v>5.89</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B188" s="3">
         <v>11.79</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B189" s="3">
         <v>11.79</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B190" s="3">
         <v>11.79</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B191" s="3">
-        <v>5.99</v>
+        <v>11.79</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B192" s="3">
-        <v>5.89</v>
+        <v>11.79</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B193" s="3">
-        <v>5.89</v>
+        <v>11.79</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B194" s="3">
-        <v>11.79</v>
+        <v>5.99</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B195" s="3">
-        <v>11.79</v>
+        <v>5.89</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B196" s="3">
-        <v>11.79</v>
+        <v>5.89</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B197" s="3">
         <v>11.79</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B198" s="3">
         <v>11.79</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B199" s="3">
         <v>11.79</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B200" s="3">
-        <v>5.99</v>
+        <v>11.79</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B201" s="3">
-        <v>5.89</v>
+        <v>11.79</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B202" s="3">
-        <v>5.89</v>
+        <v>11.79</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B203" s="3">
-        <v>11.79</v>
+        <v>5.99</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B204" s="3">
-        <v>11.79</v>
+        <v>5.89</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B205" s="3">
-        <v>11.79</v>
+        <v>5.99</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B206" s="3">
-        <v>11.79</v>
+        <v>11.99</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B207" s="3">
-        <v>11.79</v>
+        <v>11.99</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B208" s="3">
-        <v>11.79</v>
+        <v>11.99</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B209" s="3">
-        <v>5.99</v>
+        <v>11.99</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B210" s="3">
-        <v>5.89</v>
+        <v>11.99</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B211" s="3">
-        <v>5.99</v>
+        <v>11.99</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B212" s="3">
         <v>11.99</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B213" s="3">
-        <v>11.99</v>
+        <v>5.99</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B214" s="3">
-        <v>11.99</v>
+        <v>5.89</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B215" s="3">
-        <v>11.99</v>
+        <v>11.79</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B216" s="3">
-        <v>11.99</v>
+        <v>11.79</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B217" s="3">
-        <v>11.99</v>
+        <v>11.79</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B218" s="3">
-        <v>11.99</v>
+        <v>11.79</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B219" s="3">
-        <v>5.99</v>
+      <c r="A219" t="s">
+        <v>10</v>
+      </c>
+      <c r="B219" s="2">
+        <v>2.09</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B220" s="3">
-        <v>5.89</v>
+        <v>2.39</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B221" s="3">
-        <v>11.79</v>
+        <v>5.99</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B222" s="3">
-        <v>11.79</v>
+        <v>11.99</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B223" s="3">
-        <v>11.79</v>
+        <v>11.99</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B224" s="3">
+        <v>11.99</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B224" s="3">
-        <v>11.79</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" t="s">
-        <v>10</v>
-      </c>
-      <c r="B225" s="2">
-        <v>2.09</v>
+      <c r="B225" s="3">
+        <v>11.99</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="B226" s="3">
-        <v>2.39</v>
+        <v>11.99</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3109,10 +3106,10 @@
         <v>27</v>
       </c>
       <c r="B227" s="3">
-        <v>5.99</v>
+        <v>5.89</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3120,10 +3117,10 @@
         <v>28</v>
       </c>
       <c r="B228" s="3">
-        <v>11.99</v>
+        <v>11.79</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3131,10 +3128,10 @@
         <v>29</v>
       </c>
       <c r="B229" s="3">
-        <v>11.99</v>
+        <v>11.79</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3142,10 +3139,10 @@
         <v>30</v>
       </c>
       <c r="B230" s="3">
-        <v>11.99</v>
+        <v>11.79</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3153,10 +3150,10 @@
         <v>31</v>
       </c>
       <c r="B231" s="3">
-        <v>11.99</v>
+        <v>11.79</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3164,175 +3161,175 @@
         <v>32</v>
       </c>
       <c r="B232" s="3">
-        <v>11.99</v>
+        <v>11.79</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B233" s="3">
-        <v>5.89</v>
+        <v>11.79</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B234" s="3">
-        <v>11.79</v>
+        <v>5.99</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B235" s="3">
-        <v>11.79</v>
+        <v>5.89</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B236" s="3">
-        <v>11.79</v>
+      <c r="A236" t="s">
+        <v>10</v>
+      </c>
+      <c r="B236" s="2">
+        <v>2.09</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="B237" s="3">
-        <v>11.79</v>
+        <v>2.39</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B238" s="3">
-        <v>11.79</v>
+      <c r="A238" t="s">
+        <v>36</v>
+      </c>
+      <c r="B238" s="2">
+        <v>2.4900000000000002</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B239" s="3">
-        <v>11.79</v>
+      <c r="A239" t="s">
+        <v>37</v>
+      </c>
+      <c r="B239" s="2">
+        <v>3.79</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B240" s="3">
-        <v>5.99</v>
+      <c r="A240" t="s">
+        <v>38</v>
+      </c>
+      <c r="B240" s="2">
+        <v>2.59</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B241" s="3">
-        <v>5.89</v>
+      <c r="A241" t="s">
+        <v>39</v>
+      </c>
+      <c r="B241" s="2">
+        <v>3.59</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" t="s">
-        <v>10</v>
+      <c r="A242" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B242" s="2">
-        <v>2.09</v>
+        <v>1.59</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B243" s="3">
-        <v>2.39</v>
+        <v>41</v>
+      </c>
+      <c r="B243" s="2">
+        <v>1.99</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" t="s">
-        <v>36</v>
+      <c r="A244" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B244" s="2">
-        <v>2.4900000000000002</v>
+        <v>2.69</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" t="s">
-        <v>37</v>
+      <c r="A245" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B245" s="2">
-        <v>3.79</v>
+        <v>2.89</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>38</v>
+      <c r="A246" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B246" s="2">
-        <v>2.59</v>
+        <v>1.85</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" t="s">
-        <v>39</v>
+      <c r="A247" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B247" s="2">
-        <v>3.59</v>
+        <v>2.99</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
@@ -3340,10 +3337,10 @@
         <v>40</v>
       </c>
       <c r="B248" s="2">
-        <v>1.59</v>
+        <v>1.7</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
@@ -3351,10 +3348,10 @@
         <v>41</v>
       </c>
       <c r="B249" s="2">
-        <v>1.99</v>
+        <v>1.79</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
@@ -3362,10 +3359,10 @@
         <v>42</v>
       </c>
       <c r="B250" s="2">
-        <v>2.69</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
@@ -3376,7 +3373,7 @@
         <v>2.89</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
@@ -3384,10 +3381,10 @@
         <v>44</v>
       </c>
       <c r="B252" s="2">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
@@ -3395,10 +3392,10 @@
         <v>45</v>
       </c>
       <c r="B253" s="2">
-        <v>2.99</v>
+        <v>3.25</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
@@ -3406,10 +3403,10 @@
         <v>40</v>
       </c>
       <c r="B254" s="2">
-        <v>1.7</v>
+        <v>1.59</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
@@ -3417,10 +3414,10 @@
         <v>41</v>
       </c>
       <c r="B255" s="2">
-        <v>1.79</v>
+        <v>1.99</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
@@ -3428,10 +3425,10 @@
         <v>42</v>
       </c>
       <c r="B256" s="2">
-        <v>2.4900000000000002</v>
+        <v>2.69</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
@@ -3442,7 +3439,7 @@
         <v>2.89</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
@@ -3450,10 +3447,10 @@
         <v>44</v>
       </c>
       <c r="B258" s="2">
-        <v>2.35</v>
+        <v>1.85</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
@@ -3461,21 +3458,21 @@
         <v>45</v>
       </c>
       <c r="B259" s="2">
-        <v>3.25</v>
+        <v>2.99</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B260" s="2">
-        <v>1.59</v>
+        <v>3.45</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
@@ -3483,10 +3480,10 @@
         <v>41</v>
       </c>
       <c r="B261" s="2">
-        <v>1.99</v>
+        <v>2.79</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
@@ -3494,10 +3491,10 @@
         <v>42</v>
       </c>
       <c r="B262" s="2">
-        <v>2.69</v>
+        <v>3.49</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
@@ -3505,10 +3502,10 @@
         <v>43</v>
       </c>
       <c r="B263" s="2">
-        <v>2.89</v>
+        <v>3.29</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
@@ -3516,10 +3513,10 @@
         <v>44</v>
       </c>
       <c r="B264" s="2">
-        <v>1.85</v>
+        <v>2.35</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
@@ -3530,106 +3527,40 @@
         <v>2.99</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B266" s="2">
-        <v>3.45</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B267" s="2">
-        <v>2.79</v>
+        <v>3.75</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B268" s="2">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B269" s="2">
-        <v>3.29</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B270" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B271" s="2">
-        <v>2.99</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B272" s="2">
-        <v>4.3499999999999996</v>
-      </c>
-      <c r="C272" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B273" s="2">
-        <v>3.75</v>
-      </c>
-      <c r="C273" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B274" s="2">
-        <v>3.45</v>
-      </c>
-      <c r="C274" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
